--- a/INPUT/Arris_Library_Database.xlsx
+++ b/INPUT/Arris_Library_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>DN</t>
   </si>
@@ -922,7 +922,7 @@
   <dimension ref="A1:H610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,14 +1149,21 @@
         <v>42677.375451388885</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>9761797</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6">
+        <v>42695.656747685185</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
